--- a/public/file-excel-teamplate/import_template.xlsx
+++ b/public/file-excel-teamplate/import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quanglx\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\phone-market\public\file-excel-teamplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,20 +14,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Mã vật tư</t>
-  </si>
   <si>
     <t>Tên vật tư</t>
   </si>
   <si>
     <t>Số lượng</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -303,21 +303,19 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
